--- a/4. Bitcoin/BTC_with_strategy_with_seed.xlsx
+++ b/4. Bitcoin/BTC_with_strategy_with_seed.xlsx
@@ -9876,13 +9876,13 @@
         <v>163530000</v>
       </c>
       <c r="E201" t="n">
-        <v>164373000</v>
+        <v>164390000</v>
       </c>
       <c r="F201" t="n">
-        <v>446.77672455</v>
+        <v>453.35642837</v>
       </c>
       <c r="G201" t="n">
-        <v>73623429839.38898</v>
+        <v>74704889406.83739</v>
       </c>
       <c r="H201" t="n">
         <v>2410000</v>
